--- a/Lesson3/JoystickInputToPowerOutputCurve.xlsx
+++ b/Lesson3/JoystickInputToPowerOutputCurve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\Trc492\FrcAdvancedProgrammingClass\Lesson1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\Trc492\FrcAdvancedProgrammingClass\Lesson3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF700F1-F98C-48A2-8465-0C312D370686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4857FA0-B44D-4480-8219-CCEE1F4543B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{FEFB4943-B47B-4846-9EB3-A76866A6171F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEFB4943-B47B-4846-9EB3-A76866A6171F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <t>Joystick Input</t>
   </si>
   <si>
-    <t>Power Output</t>
-  </si>
-  <si>
     <t>Deadband</t>
   </si>
   <si>
     <t>Squared Power Output</t>
+  </si>
+  <si>
+    <t>Linear Power Output</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Power Output</c:v>
+                  <c:v>Linear Power Output</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3923,18 +3923,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA34FD6-297A-4F48-ABE2-D1AFDF4B5AB7}">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0.2</v>
@@ -3945,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
